--- a/inputdata.xlsx
+++ b/inputdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79d2e06a4ad5c942/course/CE program design/spacialTruss/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DXX\OneDrive\course\CE program design\spacialTruss\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>paste to input right and below from here</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>NP</t>
   </si>
@@ -42,6 +39,27 @@
   </si>
   <si>
     <t>NCF</t>
+  </si>
+  <si>
+    <t>结构离散节点的总数</t>
+  </si>
+  <si>
+    <t>结构离散单元的总数</t>
+  </si>
+  <si>
+    <t>结构单元不同的特征数类的总数</t>
+  </si>
+  <si>
+    <t>结构受约束节点的总数</t>
+  </si>
+  <si>
+    <t>结构有外荷载作用的总数</t>
+  </si>
+  <si>
+    <t>paste to input file right and below from here</t>
+  </si>
+  <si>
+    <t>NOTE: matrix input format, column first</t>
   </si>
 </sst>
 </file>
@@ -393,56 +411,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
     </row>

--- a/inputdata.xlsx
+++ b/inputdata.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6430"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ORIGIN" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>NP</t>
   </si>
@@ -60,6 +60,105 @@
   </si>
   <si>
     <t>NOTE: matrix input format, column first</t>
+  </si>
+  <si>
+    <t>A(IX+I)</t>
+  </si>
+  <si>
+    <t>A(IY+I)</t>
+  </si>
+  <si>
+    <t>A(IZ+I)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>第一行存弹性模量Eo, 第二行存杆件面积Ao;</t>
+  </si>
+  <si>
+    <t>READ(1,*)(A(IX+I),A(IY+I),A(IZ+I),I=1,NP)</t>
+  </si>
+  <si>
+    <t>X()一维数组</t>
+  </si>
+  <si>
+    <t>A(IAE+2*(I-1)+1)</t>
+  </si>
+  <si>
+    <t>A(IAE+2*(I-1)+2)</t>
+  </si>
+  <si>
+    <t>READ(1,*)(A(IAE+2*(I-1)+1), A(IAE+2*(I-1)+2),I=1,NM)，input FORMAT: Eo1 Ao1 Eo2 Ao2 … Eo(NM)  Ao(NM) in one line or split to NM line</t>
+  </si>
+  <si>
+    <t>IA(IME+2*(I-1)+1)</t>
+  </si>
+  <si>
+    <t>IA(IME+2*(I-1)+2)</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>ME(2, j)</t>
+  </si>
+  <si>
+    <t>j单元的两端节点号</t>
+  </si>
+  <si>
+    <t>AE(2, NM)</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>READ(1,*)(IA(IME+2*(I-1)+1),IA(IME+2*(I-1)+2),IA(INAE+I),I=1,NE), INPUT FORMAT: number of j element node1, number of j element node2, j+1 node1, j+1 node2, … util NE element's</t>
+  </si>
+  <si>
+    <t>RR(2, 4)</t>
+  </si>
+  <si>
+    <t>结构有4个节点存在约束， RR(1, :)存节点号， RR(2,:)存约束情况；</t>
+  </si>
+  <si>
+    <t>READ(1,*)(A(IRR+2*(I-1)+1), A(IRR+2*(I-1)+2),I=1,NR), input format: node number, restrants,…NR's</t>
+  </si>
+  <si>
+    <t>PF(4, NCF)</t>
+  </si>
+  <si>
+    <t>要输入的外荷载</t>
+  </si>
+  <si>
+    <t>PF(1, NCF)</t>
+  </si>
+  <si>
+    <t>外荷载作用的节点号</t>
+  </si>
+  <si>
+    <t>PF(2,NCF)</t>
+  </si>
+  <si>
+    <t>Fx</t>
+  </si>
+  <si>
+    <t>PF(3,NCF)</t>
+  </si>
+  <si>
+    <t>Fy</t>
+  </si>
+  <si>
+    <t>Fz</t>
+  </si>
+  <si>
+    <t>READ(1,*)((A(IPF+4*(I-1)+J),J=1,4),I=1,NCF), input format: node number, Fx, Fy, Fz, node2, Fx, Fy, Fz,…NCF node's(no ",")</t>
+  </si>
+  <si>
+    <t>READ(1,*)NP,NE,NM,NR,NCF</t>
   </si>
 </sst>
 </file>
@@ -75,12 +174,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,8 +200,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,77 +517,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
-        <v>1</v>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
